--- a/Document/ItemUID구조.xlsx
+++ b/Document/ItemUID구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE47273-AD51-4E4F-A679-C4D699EF8A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783B70E0-AE3C-4945-ACBE-B489EB1F079A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17985" yWindow="5850" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
-    <t>16비트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WorldID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,15 +35,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32비트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>각 서버별 42억 까지 ID 발급 가능</t>
+    <t>8비트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48비트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 서버별 281474976710655 까지 ID 발급 가능 (약 280조)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,31 +376,31 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
